--- a/doc/13_外部設計/02_外部設計書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_外部設計書_C2_パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661009FA-E23B-4553-BADE-3CF9176761B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F79BF-0B26-4973-B1E1-64EA53D4F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -741,6 +741,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,16 +798,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1580,6 +1579,668 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>225812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="グラフィックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6540A57-46E7-2968-FCDB-7799404063BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10949230" y="1163782"/>
+          <a:ext cx="10983207" cy="6336376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1386</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>189116</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FE3C26-7FB9-400C-AA5D-8A82B27171A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10724804" y="928949"/>
+          <a:ext cx="686494" cy="682336"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1386</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723151F1-2229-4D4D-A13C-70F8BFC5A3CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10724804" y="928949"/>
+          <a:ext cx="680951" cy="682336"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>29096</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>13856</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87011B91-1C91-441C-92E1-A65670CD3D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13994478" y="2411384"/>
+          <a:ext cx="982287" cy="984285"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4-1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>139931</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>124691</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836368C3-039F-4F77-A17E-0997E8B03263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115204" y="3353493"/>
+          <a:ext cx="982287" cy="984285"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4-2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>56805</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>41565</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8841FFDA-2F4E-462D-8B57-3ECCA0CCCE3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14022187" y="4254039"/>
+          <a:ext cx="982287" cy="984285"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4-3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>112223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B90516-DE76-4B76-AB41-5EC57F4D2E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10087496" y="5265420"/>
+          <a:ext cx="954577" cy="956519"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4-4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>238604</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>44641</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="グラフィックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12BA5A0-6FDE-2FBE-37E4-2BA6FC14C033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10962022" y="7855527"/>
+          <a:ext cx="11028219" cy="6203373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>110838</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB590DB-FC38-DD4B-ECD5-00917D7AC701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10266219" y="8257309"/>
+          <a:ext cx="4558146" cy="748145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1"/>
+            <a:t>カーソルを乗せたとき</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1882,190 +2543,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -3628,7 +4289,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="2"/>
@@ -6514,6 +7175,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -6529,8 +7192,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6546,8 +7207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E6D170-3F5B-4840-9F57-F0A6A09C8EC7}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CN38" sqref="CN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6556,190 +7217,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -8302,7 +8963,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="2"/>
@@ -11188,10 +11849,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -11205,6 +11862,10 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
